--- a/biology/Botanique/Grassette/Grassette.xlsx
+++ b/biology/Botanique/Grassette/Grassette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinguicula
 Les grassettes, genre Pinguicula, sont des plantes carnivores, herbacées vivaces (parfois annuelles) de la famille des Lentibulariacées. On en retrouve près de 50 espèces à travers le monde.
@@ -516,7 +528,9 @@
           <t>Liste des espèces de Pinguicula</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tempérées
 Pinguicula alpina — grassette des Alpes
@@ -625,7 +639,7 @@
 Pinguicula elongata
 Pinguicula involuta
 Pinguicula jarmilae (nouvelle espèce andine).
-Selon Catalogue of Life                                   (20 juillet 2017)[1] :
+Selon Catalogue of Life                                   (20 juillet 2017) :
 Pinguicula acuminata Benth.
 Pinguicula agnata Casper
 Pinguicula albida Wright ex Griseb.
